--- a/PC Purchase Plan.xlsx
+++ b/PC Purchase Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>方案1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,59 +76,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>映泰B75MU3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光盘-烧制ubuntu启动盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导热胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金士顿ddr4 16G*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金士顿ddr3 8G*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金士顿16GB DDR3 1600 REG ECC(KVR16R11D4/16 * 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕Z9PA-D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手e5 2665 * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二手</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>惠普</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Z820 X79</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主板</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二手e5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thermaltake 730w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>金河田ZP600P-GF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>映泰B75MU3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>酷冷至尊毁灭者RC-K100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光盘-烧制ubuntu启动盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导热胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二手e5 2665 * 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金士顿ddr4 16G*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金士顿ddr3 8G*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金士顿16GB DDR3 1600 REG ECC(KVR16R11D4/16 * 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华硕Z9PA-D8</t>
+    <t>九州风神热管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240G SSD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +240,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,10 +277,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -498,9 +606,10 @@
     <col min="7" max="7" width="2.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,10 +620,13 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -531,18 +643,24 @@
         <v>2500</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>700</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>450</v>
@@ -551,36 +669,45 @@
         <v>1000</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>700</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1800</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -591,13 +718,19 @@
         <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>SUM(C2:C4)</f>
         <v>1900</v>
@@ -611,7 +744,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -622,55 +755,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>459</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>229</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C12:C15)</f>
         <v>1688</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <f>SUM(C6,C16)</f>
@@ -685,22 +836,46 @@
         <v>7988</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>SUM(K2:K22)</f>
+        <v>4960</v>
+      </c>
+      <c r="L23">
+        <f>SUM(L2:L22)</f>
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>-3700</v>
       </c>
